--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3609151.415687995</v>
+        <v>3704127.789921793</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10326221.55156749</v>
+        <v>10294793.31797837</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>630425.5206914344</v>
+        <v>564162.8405048625</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7412731.425979043</v>
+        <v>7425744.929030336</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1378,7 @@
         <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231188</v>
@@ -1385,7 +1387,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
-        <v>124.9536434626485</v>
+        <v>69.54603461283985</v>
       </c>
       <c r="U11" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988204</v>
@@ -1436,7 +1438,7 @@
         <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>98.44591140433866</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404355</v>
       </c>
       <c r="H13" t="n">
         <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124573</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>313.8350211201147</v>
+        <v>0.7292783679713124</v>
       </c>
       <c r="C14" t="n">
-        <v>173.7136238153409</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>285.7842210773171</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>313.0315495288959</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>337.9772251983455</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>342.0229051100875</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>225.7089438439546</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.28894124480992</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T14" t="n">
-        <v>135.0191495962543</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>182.0963514155361</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>258.853437926769</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>300.8322801351031</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>317.3391181126877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>110.9331596385714</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>98.34800055526192</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
-        <v>79.71665247484644</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>77.53514210320326</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F16" t="n">
-        <v>76.52222747956533</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G16" t="n">
-        <v>97.12698771566231</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>75.85619437095487</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>27.4535998664722</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20.03333212668143</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S16" t="n">
-        <v>120.870204788076</v>
+        <v>142.7938887128487</v>
       </c>
       <c r="T16" t="n">
-        <v>150.6501287328033</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>217.3130176622469</v>
+        <v>239.2367015870211</v>
       </c>
       <c r="V16" t="n">
-        <v>183.2388227804621</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>217.6241777932251</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
-        <v>156.8108348456713</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.6858328087289</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>313.8350211201147</v>
+        <v>313.5440632291202</v>
       </c>
       <c r="C17" t="n">
-        <v>296.3740712276417</v>
+        <v>296.0831133366469</v>
       </c>
       <c r="D17" t="n">
-        <v>285.7842210773171</v>
+        <v>285.4932631863226</v>
       </c>
       <c r="E17" t="n">
-        <v>313.0315495288959</v>
+        <v>312.7405916379014</v>
       </c>
       <c r="F17" t="n">
-        <v>337.9772251983455</v>
+        <v>337.686267307351</v>
       </c>
       <c r="G17" t="n">
-        <v>342.0229051100875</v>
+        <v>341.7319472190931</v>
       </c>
       <c r="H17" t="n">
-        <v>181.9201810773122</v>
+        <v>225.4179859529601</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.28894124480992</v>
+        <v>39.99798335381541</v>
       </c>
       <c r="T17" t="n">
-        <v>135.0191495962543</v>
+        <v>134.7281917052597</v>
       </c>
       <c r="U17" t="n">
-        <v>182.0963514155361</v>
+        <v>181.8053935245416</v>
       </c>
       <c r="V17" t="n">
-        <v>258.853437926769</v>
+        <v>258.5624800357745</v>
       </c>
       <c r="W17" t="n">
-        <v>280.3421481740471</v>
+        <v>280.0511902830526</v>
       </c>
       <c r="X17" t="n">
-        <v>300.8322801351031</v>
+        <v>300.5413222441086</v>
       </c>
       <c r="Y17" t="n">
-        <v>317.3391181126877</v>
+        <v>317.0481602216931</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247658</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.9331596385714</v>
+        <v>110.6422017475769</v>
       </c>
       <c r="C19" t="n">
-        <v>98.34800055526192</v>
+        <v>98.05704266426741</v>
       </c>
       <c r="D19" t="n">
-        <v>79.71665247484644</v>
+        <v>79.42569458385194</v>
       </c>
       <c r="E19" t="n">
-        <v>77.53514210320326</v>
+        <v>77.24418421220875</v>
       </c>
       <c r="F19" t="n">
-        <v>76.52222747956533</v>
+        <v>76.23126958857083</v>
       </c>
       <c r="G19" t="n">
-        <v>97.12698771566231</v>
+        <v>96.8360298246678</v>
       </c>
       <c r="H19" t="n">
-        <v>75.85619437095487</v>
+        <v>75.56523647996036</v>
       </c>
       <c r="I19" t="n">
-        <v>27.4535998664722</v>
+        <v>27.16264197547768</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.03333212668143</v>
+        <v>19.74237423568691</v>
       </c>
       <c r="S19" t="n">
-        <v>120.870204788076</v>
+        <v>120.5792468970815</v>
       </c>
       <c r="T19" t="n">
-        <v>150.6501287328033</v>
+        <v>150.3591708418088</v>
       </c>
       <c r="U19" t="n">
-        <v>217.3130176622469</v>
+        <v>217.0220597712524</v>
       </c>
       <c r="V19" t="n">
-        <v>183.2388227804621</v>
+        <v>182.9478648894676</v>
       </c>
       <c r="W19" t="n">
-        <v>217.6241777932251</v>
+        <v>217.3332199022306</v>
       </c>
       <c r="X19" t="n">
-        <v>156.8108348456713</v>
+        <v>156.5198769546767</v>
       </c>
       <c r="Y19" t="n">
-        <v>149.6858328087289</v>
+        <v>149.3948749177344</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>313.8350211201147</v>
+        <v>313.5440632291202</v>
       </c>
       <c r="C20" t="n">
-        <v>296.3740712276417</v>
+        <v>296.0831133366471</v>
       </c>
       <c r="D20" t="n">
-        <v>285.7842210773171</v>
+        <v>285.4932631863226</v>
       </c>
       <c r="E20" t="n">
-        <v>313.0315495288959</v>
+        <v>312.7405916379014</v>
       </c>
       <c r="F20" t="n">
-        <v>337.9772251983455</v>
+        <v>337.686267307351</v>
       </c>
       <c r="G20" t="n">
-        <v>342.0229051100875</v>
+        <v>341.7319472190931</v>
       </c>
       <c r="H20" t="n">
-        <v>181.9201810773104</v>
+        <v>225.4179859529601</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.28894124480992</v>
+        <v>39.99798335381543</v>
       </c>
       <c r="T20" t="n">
-        <v>135.0191495962543</v>
+        <v>134.7281917052597</v>
       </c>
       <c r="U20" t="n">
-        <v>182.0963514155361</v>
+        <v>181.8053935245416</v>
       </c>
       <c r="V20" t="n">
-        <v>258.853437926769</v>
+        <v>258.5624800357745</v>
       </c>
       <c r="W20" t="n">
-        <v>280.3421481740471</v>
+        <v>280.0511902830516</v>
       </c>
       <c r="X20" t="n">
-        <v>300.8322801351031</v>
+        <v>300.5413222441086</v>
       </c>
       <c r="Y20" t="n">
-        <v>317.3391181126877</v>
+        <v>317.0481602216931</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.9331596385714</v>
+        <v>110.6422017475769</v>
       </c>
       <c r="C22" t="n">
-        <v>98.34800055526192</v>
+        <v>98.05704266426741</v>
       </c>
       <c r="D22" t="n">
-        <v>79.71665247484644</v>
+        <v>79.42569458385194</v>
       </c>
       <c r="E22" t="n">
-        <v>77.53514210320326</v>
+        <v>77.24418421220875</v>
       </c>
       <c r="F22" t="n">
-        <v>76.52222747956533</v>
+        <v>76.23126958857083</v>
       </c>
       <c r="G22" t="n">
-        <v>97.12698771566231</v>
+        <v>96.8360298246678</v>
       </c>
       <c r="H22" t="n">
-        <v>75.85619437095487</v>
+        <v>75.56523647996036</v>
       </c>
       <c r="I22" t="n">
-        <v>27.4535998664722</v>
+        <v>27.16264197547769</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.03333212668143</v>
+        <v>19.74237423568692</v>
       </c>
       <c r="S22" t="n">
-        <v>120.870204788076</v>
+        <v>120.5792468970815</v>
       </c>
       <c r="T22" t="n">
-        <v>150.6501287328033</v>
+        <v>150.3591708418088</v>
       </c>
       <c r="U22" t="n">
-        <v>217.3130176622469</v>
+        <v>217.0220597712524</v>
       </c>
       <c r="V22" t="n">
-        <v>183.2388227804621</v>
+        <v>182.9478648894676</v>
       </c>
       <c r="W22" t="n">
-        <v>217.6241777932251</v>
+        <v>217.3332199022306</v>
       </c>
       <c r="X22" t="n">
-        <v>156.8108348456713</v>
+        <v>156.5198769546767</v>
       </c>
       <c r="Y22" t="n">
-        <v>149.6858328087289</v>
+        <v>149.3948749177344</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>313.8350211201147</v>
+        <v>313.5440632291202</v>
       </c>
       <c r="C23" t="n">
-        <v>296.3740712276417</v>
+        <v>296.0831133366471</v>
       </c>
       <c r="D23" t="n">
-        <v>285.7842210773171</v>
+        <v>285.4932631863226</v>
       </c>
       <c r="E23" t="n">
-        <v>313.0315495288959</v>
+        <v>312.7405916379014</v>
       </c>
       <c r="F23" t="n">
-        <v>337.9772251983455</v>
+        <v>337.686267307351</v>
       </c>
       <c r="G23" t="n">
-        <v>342.0229051100875</v>
+        <v>341.7319472190931</v>
       </c>
       <c r="H23" t="n">
-        <v>225.7089438439546</v>
+        <v>225.41798595296</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.28894124480985</v>
+        <v>39.99798335381543</v>
       </c>
       <c r="T23" t="n">
-        <v>135.0191495962543</v>
+        <v>134.7281917052594</v>
       </c>
       <c r="U23" t="n">
-        <v>182.0963514155359</v>
+        <v>181.8053935245418</v>
       </c>
       <c r="V23" t="n">
-        <v>258.853437926769</v>
+        <v>258.5624800357745</v>
       </c>
       <c r="W23" t="n">
-        <v>280.3421481740471</v>
+        <v>280.0511902830526</v>
       </c>
       <c r="X23" t="n">
-        <v>300.8322801351031</v>
+        <v>300.5413222441086</v>
       </c>
       <c r="Y23" t="n">
-        <v>317.3391181126877</v>
+        <v>317.0481602216931</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110.9331596385714</v>
+        <v>110.6422017475769</v>
       </c>
       <c r="C25" t="n">
-        <v>98.34800055526192</v>
+        <v>98.05704266426741</v>
       </c>
       <c r="D25" t="n">
-        <v>79.71665247484644</v>
+        <v>79.42569458385194</v>
       </c>
       <c r="E25" t="n">
-        <v>77.53514210320326</v>
+        <v>77.24418421220875</v>
       </c>
       <c r="F25" t="n">
-        <v>76.52222747956533</v>
+        <v>76.23126958857083</v>
       </c>
       <c r="G25" t="n">
-        <v>97.12698771566231</v>
+        <v>96.8360298246678</v>
       </c>
       <c r="H25" t="n">
-        <v>75.85619437095487</v>
+        <v>75.56523647996036</v>
       </c>
       <c r="I25" t="n">
-        <v>27.4535998664722</v>
+        <v>27.16264197547769</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.03333212668143</v>
+        <v>19.74237423568692</v>
       </c>
       <c r="S25" t="n">
-        <v>120.870204788076</v>
+        <v>120.5792468970815</v>
       </c>
       <c r="T25" t="n">
-        <v>150.6501287328033</v>
+        <v>150.3591708418088</v>
       </c>
       <c r="U25" t="n">
-        <v>217.3130176622469</v>
+        <v>217.0220597712524</v>
       </c>
       <c r="V25" t="n">
-        <v>183.2388227804621</v>
+        <v>182.9478648894676</v>
       </c>
       <c r="W25" t="n">
-        <v>217.6241777932251</v>
+        <v>217.3332199022306</v>
       </c>
       <c r="X25" t="n">
-        <v>156.8108348456713</v>
+        <v>156.5198769546767</v>
       </c>
       <c r="Y25" t="n">
-        <v>149.6858328087289</v>
+        <v>149.3948749177344</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2557,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210278</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403088</v>
       </c>
       <c r="V26" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2715,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572815</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128505</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2776,7 +2778,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
@@ -2950,25 +2952,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572793</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124571</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128497</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.23670158702</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403088</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
@@ -3126,7 +3128,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247644</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3202,10 +3204,10 @@
         <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>310.7072523510687</v>
+        <v>310.9982102420632</v>
       </c>
       <c r="C35" t="n">
-        <v>293.2463024585957</v>
+        <v>293.5372603495903</v>
       </c>
       <c r="D35" t="n">
-        <v>282.6564523082711</v>
+        <v>282.9474101992656</v>
       </c>
       <c r="E35" t="n">
-        <v>309.90378075985</v>
+        <v>310.1947386508444</v>
       </c>
       <c r="F35" t="n">
-        <v>334.8494564292996</v>
+        <v>335.1404143202941</v>
       </c>
       <c r="G35" t="n">
-        <v>338.8951363410416</v>
+        <v>339.1860942320361</v>
       </c>
       <c r="H35" t="n">
-        <v>222.5811750749087</v>
+        <v>222.8721329659031</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>37.16117247576435</v>
+        <v>37.45213036675854</v>
       </c>
       <c r="T35" t="n">
-        <v>131.8913808272083</v>
+        <v>132.1823387182029</v>
       </c>
       <c r="U35" t="n">
-        <v>178.9685826464899</v>
+        <v>179.2595405374853</v>
       </c>
       <c r="V35" t="n">
-        <v>255.7256691577231</v>
+        <v>256.0166270487176</v>
       </c>
       <c r="W35" t="n">
-        <v>277.2143794050012</v>
+        <v>277.5053372959957</v>
       </c>
       <c r="X35" t="n">
-        <v>297.7045113660572</v>
+        <v>297.9954692570517</v>
       </c>
       <c r="Y35" t="n">
-        <v>314.2113493436418</v>
+        <v>314.5023072346363</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.8053908695255</v>
+        <v>108.09634876052</v>
       </c>
       <c r="C37" t="n">
-        <v>95.22023178621602</v>
+        <v>95.51118967721052</v>
       </c>
       <c r="D37" t="n">
-        <v>76.58888370580054</v>
+        <v>76.87984159679505</v>
       </c>
       <c r="E37" t="n">
-        <v>74.40737333415736</v>
+        <v>74.69833122515186</v>
       </c>
       <c r="F37" t="n">
-        <v>105.8950506125673</v>
+        <v>73.68541660151394</v>
       </c>
       <c r="G37" t="n">
-        <v>93.99921894661641</v>
+        <v>94.29017683761091</v>
       </c>
       <c r="H37" t="n">
-        <v>72.72842560190897</v>
+        <v>73.01938349290347</v>
       </c>
       <c r="I37" t="n">
-        <v>24.3258310974263</v>
+        <v>24.6167889884208</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.90556335763553</v>
+        <v>17.19652124863003</v>
       </c>
       <c r="S37" t="n">
-        <v>117.7424360190301</v>
+        <v>118.0333939100246</v>
       </c>
       <c r="T37" t="n">
-        <v>147.5223599637574</v>
+        <v>147.8133178547519</v>
       </c>
       <c r="U37" t="n">
-        <v>214.185248893201</v>
+        <v>214.4762067841955</v>
       </c>
       <c r="V37" t="n">
-        <v>180.1110540114162</v>
+        <v>208.2472775485463</v>
       </c>
       <c r="W37" t="n">
-        <v>214.4964090241792</v>
+        <v>214.7873669151737</v>
       </c>
       <c r="X37" t="n">
-        <v>153.6830660766253</v>
+        <v>153.9740239676198</v>
       </c>
       <c r="Y37" t="n">
-        <v>146.558064039683</v>
+        <v>146.8490219306775</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>310.7072523510687</v>
+        <v>310.9982102420632</v>
       </c>
       <c r="C38" t="n">
-        <v>293.2463024585957</v>
+        <v>293.5372603495903</v>
       </c>
       <c r="D38" t="n">
-        <v>282.6564523082711</v>
+        <v>282.9474101992656</v>
       </c>
       <c r="E38" t="n">
-        <v>309.90378075985</v>
+        <v>310.1947386508444</v>
       </c>
       <c r="F38" t="n">
-        <v>334.8494564292996</v>
+        <v>335.1404143202941</v>
       </c>
       <c r="G38" t="n">
-        <v>338.8951363410416</v>
+        <v>339.1860942320361</v>
       </c>
       <c r="H38" t="n">
-        <v>222.5811750749087</v>
+        <v>222.8721329659031</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>37.16117247576405</v>
+        <v>37.4521303667584</v>
       </c>
       <c r="T38" t="n">
-        <v>131.8913808272083</v>
+        <v>132.1823387182029</v>
       </c>
       <c r="U38" t="n">
-        <v>178.9685826464901</v>
+        <v>179.2595405374853</v>
       </c>
       <c r="V38" t="n">
-        <v>255.7256691577231</v>
+        <v>256.0166270487176</v>
       </c>
       <c r="W38" t="n">
-        <v>277.2143794050012</v>
+        <v>277.5053372959957</v>
       </c>
       <c r="X38" t="n">
-        <v>297.7045113660572</v>
+        <v>297.9954692570517</v>
       </c>
       <c r="Y38" t="n">
-        <v>314.2113493436428</v>
+        <v>314.5023072346363</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.8053908695255</v>
+        <v>108.09634876052</v>
       </c>
       <c r="C40" t="n">
-        <v>95.22023178621602</v>
+        <v>95.51118967721052</v>
       </c>
       <c r="D40" t="n">
-        <v>76.58888370580054</v>
+        <v>76.87984159679505</v>
       </c>
       <c r="E40" t="n">
-        <v>74.40737333415736</v>
+        <v>74.69833122515186</v>
       </c>
       <c r="F40" t="n">
-        <v>73.39445871051943</v>
+        <v>73.68541660151394</v>
       </c>
       <c r="G40" t="n">
-        <v>93.99921894661641</v>
+        <v>122.1354424837463</v>
       </c>
       <c r="H40" t="n">
-        <v>105.2290175039561</v>
+        <v>73.01938349290347</v>
       </c>
       <c r="I40" t="n">
-        <v>24.3258310974263</v>
+        <v>24.6167889884208</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.90556335763553</v>
+        <v>17.19652124863003</v>
       </c>
       <c r="S40" t="n">
-        <v>117.7424360190301</v>
+        <v>118.0333939100246</v>
       </c>
       <c r="T40" t="n">
-        <v>147.5223599637574</v>
+        <v>147.8133178547519</v>
       </c>
       <c r="U40" t="n">
-        <v>214.185248893201</v>
+        <v>214.4762067841955</v>
       </c>
       <c r="V40" t="n">
-        <v>180.1110540114162</v>
+        <v>180.4020119024107</v>
       </c>
       <c r="W40" t="n">
-        <v>214.4964090241792</v>
+        <v>214.7873669151737</v>
       </c>
       <c r="X40" t="n">
-        <v>153.6830660766253</v>
+        <v>153.9740239676198</v>
       </c>
       <c r="Y40" t="n">
-        <v>146.558064039683</v>
+        <v>146.8490219306775</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3742,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>77.12881875749919</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>147.6721943364654</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3900,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F43" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572838</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128492</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575768</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870202</v>
@@ -3961,7 +3963,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y43" t="n">
         <v>171.6095167335022</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>357.6823889696614</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>340.2214390771883</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D44" t="n">
-        <v>329.6315889268637</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
-        <v>131.6605234799974</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>381.8245930478922</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>385.8702729596342</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
-        <v>269.5563116935013</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>324.1895160235938</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>344.6796479846498</v>
+        <v>228.5541488319146</v>
       </c>
       <c r="Y44" t="n">
-        <v>361.1864859622343</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>154.7805274881181</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>142.1953684048086</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E46" t="n">
-        <v>121.3825099527499</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F46" t="n">
-        <v>120.369595329112</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G46" t="n">
-        <v>140.974355565209</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>119.7035622205015</v>
+        <v>97.77987829572919</v>
       </c>
       <c r="I46" t="n">
-        <v>71.30096771601887</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S46" t="n">
-        <v>164.7175726376227</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>261.1603855117937</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V46" t="n">
-        <v>227.0861906300088</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>261.4715456427717</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>59.92225586445308</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.5332006582755</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1680.134122574823</v>
+        <v>1769.073508688633</v>
       </c>
       <c r="C11" t="n">
-        <v>1358.621238582484</v>
+        <v>1447.560624696294</v>
       </c>
       <c r="D11" t="n">
-        <v>1047.805172923807</v>
+        <v>1136.744559037617</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>798.4059393874463</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>434.8696675459121</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753429</v>
+        <v>67.24685033898193</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>67.24685033898193</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>67.24685033898193</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>256.1259812980073</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.9453549878538</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.979568236262</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1574.511472908187</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2121.290289966969</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2624.262760846306</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3055.039088636612</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3303.325450392294</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3362.342516949097</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3299.501481424265</v>
       </c>
       <c r="T11" t="n">
-        <v>3199.390020131747</v>
+        <v>3229.252961613316</v>
       </c>
       <c r="U11" t="n">
-        <v>2993.309176353657</v>
+        <v>3023.172117835225</v>
       </c>
       <c r="V11" t="n">
-        <v>2993.309176353657</v>
+        <v>2739.558863439728</v>
       </c>
       <c r="W11" t="n">
-        <v>2687.990154031616</v>
+        <v>2434.239841117687</v>
       </c>
       <c r="X11" t="n">
-        <v>2361.97402871861</v>
+        <v>2108.223715804681</v>
       </c>
       <c r="Y11" t="n">
-        <v>2019.284329690871</v>
+        <v>2108.223715804681</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>942.2785883879072</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.8255591067802</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.891149445529</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>459.6536944400734</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>313.1191364669584</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.7560362995765</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>86.25414193744399</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>67.24685033898193</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.9241198296003</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>399.1883188099474</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.8864791226126</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1213.162804344928</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1686.685847899383</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2097.647127317437</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2408.14671879354</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.78827644014</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2565.643923032655</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2436.206036526135</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2243.563036203991</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2015.495189338406</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1780.343081106663</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1526.105724378462</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1318.254224172929</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1110.493925407975</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052944</v>
+        <v>760.2009837120927</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>638.7144337322591</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611984</v>
+        <v>536.0474272679967</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268786</v>
+        <v>435.5839666336769</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770415</v>
+        <v>336.1436520838399</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998336</v>
+        <v>215.8904484066324</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657647</v>
+        <v>117.1228945725635</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>67.24685033898193</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.8748680383241</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>409.367436239607</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>772.4326199405098</v>
       </c>
       <c r="M13" t="n">
-        <v>1162.360316885667</v>
+        <v>1163.095050792465</v>
       </c>
       <c r="N13" t="n">
-        <v>1550.274078843938</v>
+        <v>1551.008812750737</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.843796923557</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.956682609622</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107745</v>
+        <v>2300.072364014544</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813346</v>
+        <v>2257.691539720145</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2113.455288495045</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105846</v>
+        <v>1939.138306012644</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179563</v>
+        <v>1697.485072086361</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.515482921749</v>
+        <v>1490.250216828548</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1248.28267973966</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.742761789716</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874608</v>
+        <v>894.3998155942591</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1761.702488729094</v>
+        <v>2019.207476131793</v>
       </c>
       <c r="C14" t="n">
-        <v>1586.234181844911</v>
+        <v>1697.694592139454</v>
       </c>
       <c r="D14" t="n">
-        <v>1297.563251463783</v>
+        <v>1386.878526480777</v>
       </c>
       <c r="E14" t="n">
-        <v>981.3697670911608</v>
+        <v>1048.539906830606</v>
       </c>
       <c r="F14" t="n">
-        <v>639.9786305271755</v>
+        <v>685.0036349890718</v>
       </c>
       <c r="G14" t="n">
-        <v>294.5009485977941</v>
+        <v>317.3808177821415</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>67.24685033898193</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>67.24685033898193</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>292.1279427311355</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810551</v>
+        <v>625.9473164209819</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1076.981529669391</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1610.513434341315</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2157.292251400097</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2660.264722279434</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3055.039088636612</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3303.325450392294</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3362.342516949097</v>
       </c>
       <c r="S14" t="n">
-        <v>3284.909921361887</v>
+        <v>3299.501481424265</v>
       </c>
       <c r="T14" t="n">
-        <v>3148.526941971731</v>
+        <v>3140.97336675656</v>
       </c>
       <c r="U14" t="n">
-        <v>2964.59123347119</v>
+        <v>2934.89252297847</v>
       </c>
       <c r="V14" t="n">
-        <v>2703.123114353241</v>
+        <v>2651.279268582973</v>
       </c>
       <c r="W14" t="n">
-        <v>2703.123114353241</v>
+        <v>2345.960246260932</v>
       </c>
       <c r="X14" t="n">
-        <v>2399.252124317783</v>
+        <v>2019.944120947925</v>
       </c>
       <c r="Y14" t="n">
-        <v>2078.707560567594</v>
+        <v>2019.944120947925</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>942.2785883879072</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.8255591067802</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.891149445529</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>459.6536944400734</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>313.1191364669584</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.7560362995765</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>86.25414193744399</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>67.24685033898193</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.9241198296003</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>399.1883188099474</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.8864791226126</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1213.162804344928</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1686.685847899383</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2097.647127317437</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2408.14671879354</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.78827644014</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2565.643923032655</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2436.206036526135</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2243.563036203991</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2015.495189338406</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1780.343081106663</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1526.105724378462</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1318.254224172929</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1110.493925407975</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>604.4503028624524</v>
+        <v>760.2009837120927</v>
       </c>
       <c r="C16" t="n">
-        <v>505.1088881601677</v>
+        <v>638.7144337322591</v>
       </c>
       <c r="D16" t="n">
-        <v>424.5870169734541</v>
+        <v>536.0474272679967</v>
       </c>
       <c r="E16" t="n">
-        <v>346.2686916166832</v>
+        <v>435.5839666336769</v>
       </c>
       <c r="F16" t="n">
-        <v>268.9735123443949</v>
+        <v>336.1436520838399</v>
       </c>
       <c r="G16" t="n">
-        <v>170.865443944736</v>
+        <v>215.8904484066322</v>
       </c>
       <c r="H16" t="n">
-        <v>94.24302538821591</v>
+        <v>117.1228945725633</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>67.24685033898193</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>158.8748680383241</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>409.3674362396071</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>772.4326199405098</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>1163.095050792465</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1551.008812750737</v>
       </c>
       <c r="O16" t="n">
-        <v>1634.79766908079</v>
+        <v>1896.843796923557</v>
       </c>
       <c r="P16" t="n">
-        <v>1867.405169514449</v>
+        <v>2175.956682609622</v>
       </c>
       <c r="Q16" t="n">
-        <v>1945.015465666964</v>
+        <v>2300.072364014544</v>
       </c>
       <c r="R16" t="n">
-        <v>1924.779776650114</v>
+        <v>2257.691539720145</v>
       </c>
       <c r="S16" t="n">
-        <v>1802.688660702563</v>
+        <v>2113.455288495045</v>
       </c>
       <c r="T16" t="n">
-        <v>1650.516813497711</v>
+        <v>1939.138306012645</v>
       </c>
       <c r="U16" t="n">
-        <v>1431.008714848977</v>
+        <v>1697.485072086361</v>
       </c>
       <c r="V16" t="n">
-        <v>1245.918994868712</v>
+        <v>1490.250216828547</v>
       </c>
       <c r="W16" t="n">
-        <v>1026.096593057373</v>
+        <v>1248.28267973966</v>
       </c>
       <c r="X16" t="n">
-        <v>867.701810384978</v>
+        <v>1067.742761789716</v>
       </c>
       <c r="Y16" t="n">
-        <v>716.50399946707</v>
+        <v>894.3998155942591</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1848.775801045255</v>
+        <v>1892.062197827481</v>
       </c>
       <c r="C17" t="n">
-        <v>1549.408052330465</v>
+        <v>1592.988345972282</v>
       </c>
       <c r="D17" t="n">
-        <v>1260.737121949337</v>
+        <v>1304.611312450744</v>
       </c>
       <c r="E17" t="n">
-        <v>944.5436375767149</v>
+        <v>988.7117249377127</v>
       </c>
       <c r="F17" t="n">
-        <v>603.1525010127295</v>
+        <v>647.6144852333177</v>
       </c>
       <c r="G17" t="n">
-        <v>257.6748190833482</v>
+        <v>302.4307001635268</v>
       </c>
       <c r="H17" t="n">
-        <v>73.91706041939644</v>
+        <v>74.73576485750651</v>
       </c>
       <c r="I17" t="n">
-        <v>73.91706041939644</v>
+        <v>74.73576485750651</v>
       </c>
       <c r="J17" t="n">
-        <v>262.7961913784218</v>
+        <v>431.020544836885</v>
       </c>
       <c r="K17" t="n">
-        <v>596.6155650682682</v>
+        <v>764.8399185267315</v>
       </c>
       <c r="L17" t="n">
-        <v>1047.649778316677</v>
+        <v>1215.87413177514</v>
       </c>
       <c r="M17" t="n">
-        <v>1581.181682988601</v>
+        <v>1984.959160267543</v>
       </c>
       <c r="N17" t="n">
-        <v>2127.960500047383</v>
+        <v>2531.737977326325</v>
       </c>
       <c r="O17" t="n">
-        <v>2993.775226300159</v>
+        <v>3034.710448205662</v>
       </c>
       <c r="P17" t="n">
-        <v>3388.549592657337</v>
+        <v>3429.48481456284</v>
       </c>
       <c r="Q17" t="n">
-        <v>3636.835954413019</v>
+        <v>3677.771176318523</v>
       </c>
       <c r="R17" t="n">
-        <v>3695.853020969822</v>
+        <v>3736.788242875325</v>
       </c>
       <c r="S17" t="n">
-        <v>3655.157120722539</v>
+        <v>3696.386239487633</v>
       </c>
       <c r="T17" t="n">
-        <v>3518.774141332383</v>
+        <v>3560.297156957067</v>
       </c>
       <c r="U17" t="n">
-        <v>3334.838432831842</v>
+        <v>3376.655345316116</v>
       </c>
       <c r="V17" t="n">
-        <v>3073.370313713894</v>
+        <v>3115.481123057758</v>
       </c>
       <c r="W17" t="n">
-        <v>2790.196426669402</v>
+        <v>2832.601132872857</v>
       </c>
       <c r="X17" t="n">
-        <v>2486.325436633944</v>
+        <v>2529.024039696989</v>
       </c>
       <c r="Y17" t="n">
-        <v>2165.780872883754</v>
+        <v>2208.77337280639</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>948.9487984683208</v>
+        <v>949.7675029064317</v>
       </c>
       <c r="C18" t="n">
-        <v>774.4957691871938</v>
+        <v>775.3144736253047</v>
       </c>
       <c r="D18" t="n">
-        <v>625.5613595259425</v>
+        <v>626.3800639640535</v>
       </c>
       <c r="E18" t="n">
-        <v>466.323904520487</v>
+        <v>467.142608958598</v>
       </c>
       <c r="F18" t="n">
-        <v>319.789346547372</v>
+        <v>320.608050985483</v>
       </c>
       <c r="G18" t="n">
-        <v>183.4262463799901</v>
+        <v>184.244950818101</v>
       </c>
       <c r="H18" t="n">
-        <v>92.92435201785763</v>
+        <v>93.74305645596856</v>
       </c>
       <c r="I18" t="n">
-        <v>73.91706041939644</v>
+        <v>74.73576485750651</v>
       </c>
       <c r="J18" t="n">
-        <v>167.5943299100137</v>
+        <v>168.4130343481239</v>
       </c>
       <c r="K18" t="n">
-        <v>405.8585288903608</v>
+        <v>406.677233328471</v>
       </c>
       <c r="L18" t="n">
-        <v>772.5566892030261</v>
+        <v>773.3753936411364</v>
       </c>
       <c r="M18" t="n">
-        <v>1219.833014425342</v>
+        <v>1220.651718863452</v>
       </c>
       <c r="N18" t="n">
-        <v>1693.356057979796</v>
+        <v>1694.174762417907</v>
       </c>
       <c r="O18" t="n">
-        <v>2104.317337397851</v>
+        <v>2105.136041835962</v>
       </c>
       <c r="P18" t="n">
-        <v>2414.816928873954</v>
+        <v>2415.635633312065</v>
       </c>
       <c r="Q18" t="n">
-        <v>2572.458486520553</v>
+        <v>2573.277190958665</v>
       </c>
       <c r="R18" t="n">
-        <v>2572.314133113069</v>
+        <v>2573.13283755118</v>
       </c>
       <c r="S18" t="n">
-        <v>2442.876246606549</v>
+        <v>2443.69495104466</v>
       </c>
       <c r="T18" t="n">
-        <v>2250.233246284404</v>
+        <v>2251.051950722515</v>
       </c>
       <c r="U18" t="n">
-        <v>2022.16539941882</v>
+        <v>2022.984103856931</v>
       </c>
       <c r="V18" t="n">
-        <v>1787.013291187077</v>
+        <v>1787.831995625188</v>
       </c>
       <c r="W18" t="n">
-        <v>1532.775934458876</v>
+        <v>1533.594638896986</v>
       </c>
       <c r="X18" t="n">
-        <v>1324.924434253343</v>
+        <v>1325.743138691454</v>
       </c>
       <c r="Y18" t="n">
-        <v>1117.164135488389</v>
+        <v>1117.9828399265</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>611.8552468496655</v>
+        <v>610.6166732706427</v>
       </c>
       <c r="C19" t="n">
-        <v>512.5138321473808</v>
+        <v>511.5691554279483</v>
       </c>
       <c r="D19" t="n">
-        <v>431.9919609606671</v>
+        <v>431.3411811008251</v>
       </c>
       <c r="E19" t="n">
-        <v>353.6736356038962</v>
+        <v>353.3167526036445</v>
       </c>
       <c r="F19" t="n">
-        <v>276.3784563316079</v>
+        <v>276.3154701909468</v>
       </c>
       <c r="G19" t="n">
-        <v>178.270387931949</v>
+        <v>178.5012986508783</v>
       </c>
       <c r="H19" t="n">
-        <v>101.647969375429</v>
+        <v>102.1727769539486</v>
       </c>
       <c r="I19" t="n">
-        <v>73.91706041939644</v>
+        <v>74.73576485750651</v>
       </c>
       <c r="J19" t="n">
-        <v>119.039692866332</v>
+        <v>119.8583973044421</v>
       </c>
       <c r="K19" t="n">
-        <v>323.0268758152083</v>
+        <v>323.8455802533184</v>
       </c>
       <c r="L19" t="n">
-        <v>639.5866742637045</v>
+        <v>640.4053787018145</v>
       </c>
       <c r="M19" t="n">
-        <v>983.7437198632534</v>
+        <v>984.5624243013635</v>
       </c>
       <c r="N19" t="n">
-        <v>1325.152096569118</v>
+        <v>1338.989368832253</v>
       </c>
       <c r="O19" t="n">
-        <v>1642.202613068004</v>
+        <v>1638.318967752666</v>
       </c>
       <c r="P19" t="n">
-        <v>1874.810113501663</v>
+        <v>1870.926468186326</v>
       </c>
       <c r="Q19" t="n">
-        <v>1952.420409654177</v>
+        <v>1948.536764338841</v>
       </c>
       <c r="R19" t="n">
-        <v>1932.184720637327</v>
+        <v>1928.594972181581</v>
       </c>
       <c r="S19" t="n">
-        <v>1810.093604689776</v>
+        <v>1806.79775309362</v>
       </c>
       <c r="T19" t="n">
-        <v>1657.921757484924</v>
+        <v>1654.919802748359</v>
       </c>
       <c r="U19" t="n">
-        <v>1438.41365883619</v>
+        <v>1435.705600959215</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.323938855925</v>
+        <v>1250.90977783854</v>
       </c>
       <c r="W19" t="n">
-        <v>1033.501537044586</v>
+        <v>1031.381272886792</v>
       </c>
       <c r="X19" t="n">
-        <v>875.1067543721911</v>
+        <v>873.2803870739874</v>
       </c>
       <c r="Y19" t="n">
-        <v>723.9089434542831</v>
+        <v>722.3764730156698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1848.775801045253</v>
+        <v>1892.062197827481</v>
       </c>
       <c r="C20" t="n">
-        <v>1549.408052330464</v>
+        <v>1592.988345972282</v>
       </c>
       <c r="D20" t="n">
-        <v>1260.737121949335</v>
+        <v>1304.611312450744</v>
       </c>
       <c r="E20" t="n">
-        <v>944.5436375767131</v>
+        <v>988.7117249377127</v>
       </c>
       <c r="F20" t="n">
-        <v>603.1525010127277</v>
+        <v>647.6144852333177</v>
       </c>
       <c r="G20" t="n">
-        <v>257.6748190833463</v>
+        <v>302.4307001635268</v>
       </c>
       <c r="H20" t="n">
-        <v>73.91706041939641</v>
+        <v>74.73576485750651</v>
       </c>
       <c r="I20" t="n">
-        <v>73.91706041939641</v>
+        <v>74.73576485750651</v>
       </c>
       <c r="J20" t="n">
-        <v>262.7961913784218</v>
+        <v>263.6148958165319</v>
       </c>
       <c r="K20" t="n">
-        <v>596.6155650682681</v>
+        <v>597.4342695063783</v>
       </c>
       <c r="L20" t="n">
-        <v>1410.492033690115</v>
+        <v>1073.350982542758</v>
       </c>
       <c r="M20" t="n">
-        <v>1944.023938362039</v>
+        <v>1606.882887214683</v>
       </c>
       <c r="N20" t="n">
-        <v>2490.802755420821</v>
+        <v>2531.737977326326</v>
       </c>
       <c r="O20" t="n">
-        <v>2993.775226300158</v>
+        <v>3034.710448205662</v>
       </c>
       <c r="P20" t="n">
-        <v>3388.549592657336</v>
+        <v>3429.48481456284</v>
       </c>
       <c r="Q20" t="n">
-        <v>3636.835954413018</v>
+        <v>3677.771176318523</v>
       </c>
       <c r="R20" t="n">
-        <v>3695.853020969821</v>
+        <v>3736.788242875325</v>
       </c>
       <c r="S20" t="n">
-        <v>3655.157120722538</v>
+        <v>3696.386239487633</v>
       </c>
       <c r="T20" t="n">
-        <v>3518.774141332382</v>
+        <v>3560.297156957067</v>
       </c>
       <c r="U20" t="n">
-        <v>3334.838432831841</v>
+        <v>3376.655345316116</v>
       </c>
       <c r="V20" t="n">
-        <v>3073.370313713892</v>
+        <v>3115.481123057758</v>
       </c>
       <c r="W20" t="n">
-        <v>2790.1964266694</v>
+        <v>2832.601132872858</v>
       </c>
       <c r="X20" t="n">
-        <v>2486.325436633942</v>
+        <v>2529.02403969699</v>
       </c>
       <c r="Y20" t="n">
-        <v>2165.780872883753</v>
+        <v>2208.773372806391</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2072.343332917589</v>
+        <v>949.7675029064318</v>
       </c>
       <c r="C21" t="n">
-        <v>1897.890303636462</v>
+        <v>775.3144736253048</v>
       </c>
       <c r="D21" t="n">
-        <v>1748.955893975211</v>
+        <v>626.3800639640535</v>
       </c>
       <c r="E21" t="n">
-        <v>1589.718438969755</v>
+        <v>467.142608958598</v>
       </c>
       <c r="F21" t="n">
-        <v>1443.18388099664</v>
+        <v>320.608050985483</v>
       </c>
       <c r="G21" t="n">
-        <v>1306.820780829258</v>
+        <v>184.2449508181011</v>
       </c>
       <c r="H21" t="n">
-        <v>1216.318886467126</v>
+        <v>93.74305645596857</v>
       </c>
       <c r="I21" t="n">
-        <v>1197.311594868664</v>
+        <v>74.73576485750651</v>
       </c>
       <c r="J21" t="n">
-        <v>1290.988864359281</v>
+        <v>168.4130343481238</v>
       </c>
       <c r="K21" t="n">
-        <v>1529.253063339628</v>
+        <v>406.6772333284709</v>
       </c>
       <c r="L21" t="n">
-        <v>1895.951223652293</v>
+        <v>773.3753936411362</v>
       </c>
       <c r="M21" t="n">
-        <v>2343.227548874609</v>
+        <v>1220.651718863452</v>
       </c>
       <c r="N21" t="n">
-        <v>2816.750592429064</v>
+        <v>1694.174762417907</v>
       </c>
       <c r="O21" t="n">
-        <v>3227.711871847118</v>
+        <v>2105.136041835961</v>
       </c>
       <c r="P21" t="n">
-        <v>3538.211463323221</v>
+        <v>2415.635633312064</v>
       </c>
       <c r="Q21" t="n">
-        <v>3695.853020969821</v>
+        <v>2573.277190958665</v>
       </c>
       <c r="R21" t="n">
-        <v>3695.708667562336</v>
+        <v>2573.13283755118</v>
       </c>
       <c r="S21" t="n">
-        <v>3566.270781055816</v>
+        <v>2443.69495104466</v>
       </c>
       <c r="T21" t="n">
-        <v>3373.627780733672</v>
+        <v>2251.051950722515</v>
       </c>
       <c r="U21" t="n">
-        <v>3145.559933868088</v>
+        <v>2022.984103856931</v>
       </c>
       <c r="V21" t="n">
-        <v>2910.407825636345</v>
+        <v>1787.831995625188</v>
       </c>
       <c r="W21" t="n">
-        <v>2656.170468908143</v>
+        <v>1533.594638896986</v>
       </c>
       <c r="X21" t="n">
-        <v>2448.318968702611</v>
+        <v>1325.743138691454</v>
       </c>
       <c r="Y21" t="n">
-        <v>2240.558669937657</v>
+        <v>1117.9828399265</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2355.287858165309</v>
+        <v>610.6166732706428</v>
       </c>
       <c r="C22" t="n">
-        <v>2255.946443463024</v>
+        <v>511.5691554279484</v>
       </c>
       <c r="D22" t="n">
-        <v>2175.424572276311</v>
+        <v>431.3411811008252</v>
       </c>
       <c r="E22" t="n">
-        <v>2097.10624691954</v>
+        <v>353.3167526036447</v>
       </c>
       <c r="F22" t="n">
-        <v>2019.811067647252</v>
+        <v>276.3154701909468</v>
       </c>
       <c r="G22" t="n">
-        <v>1921.702999247593</v>
+        <v>178.5012986508783</v>
       </c>
       <c r="H22" t="n">
-        <v>1845.080580691073</v>
+        <v>102.1727769539486</v>
       </c>
       <c r="I22" t="n">
-        <v>1817.34967173504</v>
+        <v>74.73576485750651</v>
       </c>
       <c r="J22" t="n">
-        <v>1862.472304181976</v>
+        <v>119.858397304442</v>
       </c>
       <c r="K22" t="n">
-        <v>2066.459487130852</v>
+        <v>323.8455802533184</v>
       </c>
       <c r="L22" t="n">
-        <v>2383.019285579348</v>
+        <v>640.4053787018145</v>
       </c>
       <c r="M22" t="n">
-        <v>2727.176331178897</v>
+        <v>984.5624243013634</v>
       </c>
       <c r="N22" t="n">
-        <v>3068.584707884762</v>
+        <v>1325.970801007228</v>
       </c>
       <c r="O22" t="n">
-        <v>3367.914306805175</v>
+        <v>1625.300399927642</v>
       </c>
       <c r="P22" t="n">
-        <v>3618.242724817306</v>
+        <v>1857.907900361301</v>
       </c>
       <c r="Q22" t="n">
-        <v>3695.853020969821</v>
+        <v>1948.536764338841</v>
       </c>
       <c r="R22" t="n">
-        <v>3675.617331952971</v>
+        <v>1928.594972181582</v>
       </c>
       <c r="S22" t="n">
-        <v>3553.526216005419</v>
+        <v>1806.79775309362</v>
       </c>
       <c r="T22" t="n">
-        <v>3401.354368800567</v>
+        <v>1654.919802748359</v>
       </c>
       <c r="U22" t="n">
-        <v>3181.846270151833</v>
+        <v>1435.705600959215</v>
       </c>
       <c r="V22" t="n">
-        <v>2996.756550171569</v>
+        <v>1250.909777838541</v>
       </c>
       <c r="W22" t="n">
-        <v>2776.93414836023</v>
+        <v>1031.381272886792</v>
       </c>
       <c r="X22" t="n">
-        <v>2618.539365687835</v>
+        <v>873.2803870739875</v>
       </c>
       <c r="Y22" t="n">
-        <v>2467.341554769927</v>
+        <v>722.3764730156699</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1893.909549516335</v>
+        <v>1892.062197827481</v>
       </c>
       <c r="C23" t="n">
-        <v>1594.541800801546</v>
+        <v>1592.988345972282</v>
       </c>
       <c r="D23" t="n">
-        <v>1305.870870420418</v>
+        <v>1304.611312450744</v>
       </c>
       <c r="E23" t="n">
-        <v>989.6773860477954</v>
+        <v>988.7117249377125</v>
       </c>
       <c r="F23" t="n">
-        <v>648.28624948381</v>
+        <v>647.6144852333177</v>
       </c>
       <c r="G23" t="n">
-        <v>302.8085675544287</v>
+        <v>302.4307001635268</v>
       </c>
       <c r="H23" t="n">
-        <v>74.81973538881806</v>
+        <v>74.73576485750651</v>
       </c>
       <c r="I23" t="n">
-        <v>74.81973538881806</v>
+        <v>74.73576485750651</v>
       </c>
       <c r="J23" t="n">
-        <v>263.6988663478435</v>
+        <v>263.6148958165319</v>
       </c>
       <c r="K23" t="n">
-        <v>597.5182400376898</v>
+        <v>681.8123212574426</v>
       </c>
       <c r="L23" t="n">
-        <v>1048.552453286098</v>
+        <v>1132.846534505851</v>
       </c>
       <c r="M23" t="n">
-        <v>1610.04227845528</v>
+        <v>1666.378439177776</v>
       </c>
       <c r="N23" t="n">
-        <v>2535.936503891903</v>
+        <v>2213.157256236558</v>
       </c>
       <c r="O23" t="n">
-        <v>3038.90897477124</v>
+        <v>2716.129727115895</v>
       </c>
       <c r="P23" t="n">
-        <v>3433.683341128418</v>
+        <v>3429.48481456284</v>
       </c>
       <c r="Q23" t="n">
-        <v>3681.9697028841</v>
+        <v>3677.771176318523</v>
       </c>
       <c r="R23" t="n">
-        <v>3740.986769440903</v>
+        <v>3736.788242875325</v>
       </c>
       <c r="S23" t="n">
-        <v>3700.29086919362</v>
+        <v>3696.386239487633</v>
       </c>
       <c r="T23" t="n">
-        <v>3563.907889803464</v>
+        <v>3560.297156957068</v>
       </c>
       <c r="U23" t="n">
-        <v>3379.972181302923</v>
+        <v>3376.655345316116</v>
       </c>
       <c r="V23" t="n">
-        <v>3118.504062184974</v>
+        <v>3115.481123057758</v>
       </c>
       <c r="W23" t="n">
-        <v>2835.330175140482</v>
+        <v>2832.601132872856</v>
       </c>
       <c r="X23" t="n">
-        <v>2531.459185105024</v>
+        <v>2529.024039696989</v>
       </c>
       <c r="Y23" t="n">
-        <v>2210.914621354835</v>
+        <v>2208.77337280639</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2117.477081388671</v>
+        <v>949.7675029064318</v>
       </c>
       <c r="C24" t="n">
-        <v>1943.024052107544</v>
+        <v>775.3144736253048</v>
       </c>
       <c r="D24" t="n">
-        <v>1794.089642446293</v>
+        <v>626.3800639640535</v>
       </c>
       <c r="E24" t="n">
-        <v>1634.852187440837</v>
+        <v>467.142608958598</v>
       </c>
       <c r="F24" t="n">
-        <v>1488.317629467722</v>
+        <v>320.608050985483</v>
       </c>
       <c r="G24" t="n">
-        <v>1351.95452930034</v>
+        <v>184.2449508181011</v>
       </c>
       <c r="H24" t="n">
-        <v>1261.452634938208</v>
+        <v>93.74305645596857</v>
       </c>
       <c r="I24" t="n">
-        <v>1242.445343339746</v>
+        <v>74.73576485750651</v>
       </c>
       <c r="J24" t="n">
-        <v>1336.122612830363</v>
+        <v>168.4130343481238</v>
       </c>
       <c r="K24" t="n">
-        <v>1574.38681181071</v>
+        <v>406.6772333284709</v>
       </c>
       <c r="L24" t="n">
-        <v>1941.084972123375</v>
+        <v>773.3753936411362</v>
       </c>
       <c r="M24" t="n">
-        <v>2388.361297345691</v>
+        <v>1220.651718863452</v>
       </c>
       <c r="N24" t="n">
-        <v>2861.884340900146</v>
+        <v>1694.174762417907</v>
       </c>
       <c r="O24" t="n">
-        <v>3272.8456203182</v>
+        <v>2105.136041835962</v>
       </c>
       <c r="P24" t="n">
-        <v>3583.345211794303</v>
+        <v>2415.635633312065</v>
       </c>
       <c r="Q24" t="n">
-        <v>3740.986769440903</v>
+        <v>2573.277190958665</v>
       </c>
       <c r="R24" t="n">
-        <v>3740.842416033418</v>
+        <v>2573.13283755118</v>
       </c>
       <c r="S24" t="n">
-        <v>3611.404529526898</v>
+        <v>2443.69495104466</v>
       </c>
       <c r="T24" t="n">
-        <v>3418.761529204754</v>
+        <v>2251.051950722515</v>
       </c>
       <c r="U24" t="n">
-        <v>3190.69368233917</v>
+        <v>2022.984103856931</v>
       </c>
       <c r="V24" t="n">
-        <v>2955.541574107427</v>
+        <v>1787.831995625188</v>
       </c>
       <c r="W24" t="n">
-        <v>2701.304217379226</v>
+        <v>1533.594638896986</v>
       </c>
       <c r="X24" t="n">
-        <v>2493.452717173693</v>
+        <v>1325.743138691454</v>
       </c>
       <c r="Y24" t="n">
-        <v>2285.692418408739</v>
+        <v>1117.9828399265</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2400.421606636392</v>
+        <v>610.6166732706428</v>
       </c>
       <c r="C25" t="n">
-        <v>2301.080191934107</v>
+        <v>511.5691554279484</v>
       </c>
       <c r="D25" t="n">
-        <v>2220.558320747393</v>
+        <v>431.3411811008252</v>
       </c>
       <c r="E25" t="n">
-        <v>2142.239995390622</v>
+        <v>353.3167526036447</v>
       </c>
       <c r="F25" t="n">
-        <v>2064.944816118334</v>
+        <v>276.3154701909468</v>
       </c>
       <c r="G25" t="n">
-        <v>1966.836747718675</v>
+        <v>178.5012986508783</v>
       </c>
       <c r="H25" t="n">
-        <v>1890.214329162155</v>
+        <v>102.1727769539486</v>
       </c>
       <c r="I25" t="n">
-        <v>1862.483420206122</v>
+        <v>74.73576485750651</v>
       </c>
       <c r="J25" t="n">
-        <v>1907.606052653058</v>
+        <v>119.858397304442</v>
       </c>
       <c r="K25" t="n">
-        <v>2111.593235601934</v>
+        <v>336.8641480783444</v>
       </c>
       <c r="L25" t="n">
-        <v>2428.15303405043</v>
+        <v>653.4239465268405</v>
       </c>
       <c r="M25" t="n">
-        <v>2772.310079649979</v>
+        <v>997.5809921263894</v>
       </c>
       <c r="N25" t="n">
-        <v>3113.718456355844</v>
+        <v>1338.989368832254</v>
       </c>
       <c r="O25" t="n">
-        <v>3413.048055276257</v>
+        <v>1638.318967752667</v>
       </c>
       <c r="P25" t="n">
-        <v>3663.376473288388</v>
+        <v>1870.926468186326</v>
       </c>
       <c r="Q25" t="n">
-        <v>3740.986769440903</v>
+        <v>1948.536764338841</v>
       </c>
       <c r="R25" t="n">
-        <v>3720.751080424053</v>
+        <v>1928.594972181582</v>
       </c>
       <c r="S25" t="n">
-        <v>3598.659964476502</v>
+        <v>1806.79775309362</v>
       </c>
       <c r="T25" t="n">
-        <v>3446.48811727165</v>
+        <v>1654.919802748359</v>
       </c>
       <c r="U25" t="n">
-        <v>3226.980018622915</v>
+        <v>1435.705600959215</v>
       </c>
       <c r="V25" t="n">
-        <v>3041.890298642651</v>
+        <v>1250.909777838541</v>
       </c>
       <c r="W25" t="n">
-        <v>2822.067896831312</v>
+        <v>1031.381272886792</v>
       </c>
       <c r="X25" t="n">
-        <v>2663.673114158917</v>
+        <v>873.2803870739875</v>
       </c>
       <c r="Y25" t="n">
-        <v>2512.475303241009</v>
+        <v>722.3764730156699</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6214,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668915</v>
@@ -6224,28 +6226,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L26" t="n">
-        <v>1468.364237198916</v>
+        <v>1388.344880790731</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.89614187084</v>
+        <v>1921.876785462656</v>
       </c>
       <c r="N26" t="n">
-        <v>2548.674958929623</v>
+        <v>2468.655602521438</v>
       </c>
       <c r="O26" t="n">
-        <v>3051.64742980896</v>
+        <v>2971.628073400775</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
@@ -6257,10 +6259,10 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2433.836156782225</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>2259.383127501098</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>2110.448717839847</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>1951.211262834391</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>1804.676704861276</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>1668.313604693895</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>1577.811710331762</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>1558.8044187333</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>1652.481688223917</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>1890.745887204264</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>2257.444047516929</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M27" t="n">
-        <v>2704.720372739245</v>
+        <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>3178.2434162937</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
-        <v>3589.204695711755</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>3899.704287187858</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>4057.345844834458</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
-        <v>4057.201491426973</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S27" t="n">
-        <v>3927.763604920453</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T27" t="n">
-        <v>3735.120604598309</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U27" t="n">
-        <v>3507.052757732724</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>3271.900649500981</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W27" t="n">
-        <v>3017.66329277278</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X27" t="n">
-        <v>2809.811792567247</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>2602.051493802293</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2517.474464532005</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>2395.987914552172</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>2293.32090808791</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>2192.85744745359</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>2093.417132903753</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>1973.163929226545</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>1874.396375392477</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>1824.520331158895</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>1916.148348858238</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>2166.640917059521</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>2529.706100760423</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
-        <v>2920.368531612379</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>3308.28229357065</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>3654.11727774347</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>3933.230163429536</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>4057.345844834458</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>4014.965020540059</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>3870.728769314957</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>3696.411786832557</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>3454.758552906274</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>3247.52369764846</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>3005.556160559573</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>2825.016242609629</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>2651.673296414172</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1339.011402386887</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058812</v>
+        <v>1776.744200383603</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>2826.495488321722</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
@@ -6558,7 +6560,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>2517.474464532007</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>2395.987914552174</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>2293.320908087911</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>2192.857447453591</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>2093.417132903754</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>1973.163929226546</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>1874.396375392478</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>1824.520331158896</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>1916.148348858238</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>2166.640917059522</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>2529.706100760424</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>2920.36853161238</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>3308.282293570651</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>3654.117277743471</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>3933.230163429537</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>4014.965020540059</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>3870.728769314959</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>3696.411786832558</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>3454.758552906275</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>3247.523697648462</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>3005.556160559574</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>2825.01624260963</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>2651.673296414173</v>
       </c>
     </row>
     <row r="32">
@@ -6674,61 +6676,61 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467794</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>907.4660419013976</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L32" t="n">
-        <v>1771.984857554752</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M32" t="n">
-        <v>2305.516762226676</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2623.499963990482</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>3126.472434869819</v>
       </c>
       <c r="P32" t="n">
         <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
@@ -6740,10 +6742,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2433.836156782225</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>2259.383127501098</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>2110.448717839847</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>1951.211262834391</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>1804.676704861276</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>1668.313604693894</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>1577.811710331762</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>1558.804418733301</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>1652.481688223918</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>1890.745887204265</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>2257.44404751693</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
-        <v>2704.720372739246</v>
+        <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>3178.243416293701</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
-        <v>3589.204695711755</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>3899.704287187858</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>4057.345844834458</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>4057.201491426973</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S33" t="n">
-        <v>3927.763604920453</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T33" t="n">
-        <v>3735.120604598309</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
-        <v>3507.052757732724</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>3271.900649500981</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W33" t="n">
-        <v>3017.66329277278</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X33" t="n">
-        <v>2809.811792567247</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>2602.051493802293</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
         <v>449.4840331913841</v>
@@ -6853,16 +6855,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350172</v>
@@ -6901,7 +6903,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1874.05070018906</v>
+        <v>1875.898051877914</v>
       </c>
       <c r="C35" t="n">
-        <v>1577.842313867246</v>
+        <v>1579.39576869651</v>
       </c>
       <c r="D35" t="n">
-        <v>1292.330745879093</v>
+        <v>1293.590303848767</v>
       </c>
       <c r="E35" t="n">
-        <v>979.296623899447</v>
+        <v>980.2622850095297</v>
       </c>
       <c r="F35" t="n">
-        <v>641.0648497284373</v>
+        <v>641.7366139789297</v>
       </c>
       <c r="G35" t="n">
-        <v>298.7465301920315</v>
+        <v>299.1243975829334</v>
       </c>
       <c r="H35" t="n">
-        <v>73.91706041939646</v>
+        <v>74.001030950708</v>
       </c>
       <c r="I35" t="n">
-        <v>73.91706041939646</v>
+        <v>74.001030950708</v>
       </c>
       <c r="J35" t="n">
-        <v>262.7961913784218</v>
+        <v>262.8801619097334</v>
       </c>
       <c r="K35" t="n">
-        <v>596.6155650682682</v>
+        <v>917.6034940450328</v>
       </c>
       <c r="L35" t="n">
-        <v>1047.649778316677</v>
+        <v>1368.637707293442</v>
       </c>
       <c r="M35" t="n">
-        <v>1581.181682988601</v>
+        <v>1902.169611965366</v>
       </c>
       <c r="N35" t="n">
-        <v>2127.960500047383</v>
+        <v>2495.0012819864</v>
       </c>
       <c r="O35" t="n">
-        <v>2993.77522630016</v>
+        <v>2997.973752865737</v>
       </c>
       <c r="P35" t="n">
-        <v>3388.549592657338</v>
+        <v>3392.748119222915</v>
       </c>
       <c r="Q35" t="n">
-        <v>3636.83595441302</v>
+        <v>3641.034480978597</v>
       </c>
       <c r="R35" t="n">
-        <v>3695.853020969823</v>
+        <v>3700.0515475354</v>
       </c>
       <c r="S35" t="n">
-        <v>3658.316483115515</v>
+        <v>3662.221112821503</v>
       </c>
       <c r="T35" t="n">
-        <v>3525.092866118335</v>
+        <v>3528.703598964732</v>
       </c>
       <c r="U35" t="n">
-        <v>3344.31652001077</v>
+        <v>3347.633355997575</v>
       </c>
       <c r="V35" t="n">
-        <v>3086.007763285796</v>
+        <v>3089.030702413012</v>
       </c>
       <c r="W35" t="n">
-        <v>2805.99323863428</v>
+        <v>2808.722280901905</v>
       </c>
       <c r="X35" t="n">
-        <v>2505.281610991798</v>
+        <v>2507.716756399833</v>
       </c>
       <c r="Y35" t="n">
-        <v>2187.896409634584</v>
+        <v>2190.037658183028</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>948.9487984683218</v>
+        <v>949.0327689996333</v>
       </c>
       <c r="C36" t="n">
-        <v>774.4957691871948</v>
+        <v>774.5797397185063</v>
       </c>
       <c r="D36" t="n">
-        <v>625.5613595259435</v>
+        <v>625.645330057255</v>
       </c>
       <c r="E36" t="n">
-        <v>466.323904520488</v>
+        <v>466.4078750517995</v>
       </c>
       <c r="F36" t="n">
-        <v>319.7893465473729</v>
+        <v>319.8733170786845</v>
       </c>
       <c r="G36" t="n">
-        <v>183.426246379991</v>
+        <v>183.5102169113026</v>
       </c>
       <c r="H36" t="n">
-        <v>92.92435201785852</v>
+        <v>93.00832254917006</v>
       </c>
       <c r="I36" t="n">
-        <v>73.91706041939646</v>
+        <v>74.001030950708</v>
       </c>
       <c r="J36" t="n">
-        <v>167.5943299100138</v>
+        <v>167.6783004413253</v>
       </c>
       <c r="K36" t="n">
-        <v>405.8585288903608</v>
+        <v>405.9424994216724</v>
       </c>
       <c r="L36" t="n">
-        <v>772.5566892030261</v>
+        <v>772.6406597343376</v>
       </c>
       <c r="M36" t="n">
-        <v>1219.833014425342</v>
+        <v>1219.916984956653</v>
       </c>
       <c r="N36" t="n">
-        <v>1693.356057979796</v>
+        <v>1693.440028511108</v>
       </c>
       <c r="O36" t="n">
-        <v>2104.317337397851</v>
+        <v>2104.401307929163</v>
       </c>
       <c r="P36" t="n">
-        <v>2414.816928873954</v>
+        <v>2414.900899405266</v>
       </c>
       <c r="Q36" t="n">
-        <v>2572.458486520553</v>
+        <v>2572.542457051866</v>
       </c>
       <c r="R36" t="n">
-        <v>2572.31413311307</v>
+        <v>2572.398103644381</v>
       </c>
       <c r="S36" t="n">
-        <v>2442.87624660655</v>
+        <v>2442.960217137861</v>
       </c>
       <c r="T36" t="n">
-        <v>2250.233246284405</v>
+        <v>2250.317216815717</v>
       </c>
       <c r="U36" t="n">
-        <v>2022.165399418821</v>
+        <v>2022.249369950132</v>
       </c>
       <c r="V36" t="n">
-        <v>1787.013291187078</v>
+        <v>1787.09726171839</v>
       </c>
       <c r="W36" t="n">
-        <v>1532.775934458876</v>
+        <v>1532.859904990188</v>
       </c>
       <c r="X36" t="n">
-        <v>1324.924434253344</v>
+        <v>1325.008404784655</v>
       </c>
       <c r="Y36" t="n">
-        <v>1117.16413548839</v>
+        <v>1117.248106019701</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2383.722119702093</v>
+        <v>2357.149043575663</v>
       </c>
       <c r="C37" t="n">
-        <v>2287.540067392783</v>
+        <v>2260.673094406764</v>
       </c>
       <c r="D37" t="n">
-        <v>2210.177558599045</v>
+        <v>2183.016688753435</v>
       </c>
       <c r="E37" t="n">
-        <v>2135.01859563525</v>
+        <v>2107.56382893005</v>
       </c>
       <c r="F37" t="n">
-        <v>2028.053898046798</v>
+        <v>2033.134115191147</v>
       </c>
       <c r="G37" t="n">
-        <v>1933.105192040115</v>
+        <v>1937.891512324873</v>
       </c>
       <c r="H37" t="n">
-        <v>1859.642135876571</v>
+        <v>1864.134559301738</v>
       </c>
       <c r="I37" t="n">
-        <v>1835.070589313514</v>
+        <v>1839.269115879091</v>
       </c>
       <c r="J37" t="n">
-        <v>1880.193221760449</v>
+        <v>1884.391748326026</v>
       </c>
       <c r="K37" t="n">
-        <v>2084.180404709326</v>
+        <v>2088.378931274903</v>
       </c>
       <c r="L37" t="n">
-        <v>2400.740203157822</v>
+        <v>2404.938729723399</v>
       </c>
       <c r="M37" t="n">
-        <v>2744.897248757371</v>
+        <v>2749.095775322948</v>
       </c>
       <c r="N37" t="n">
-        <v>3086.305625463235</v>
+        <v>3090.504152028812</v>
       </c>
       <c r="O37" t="n">
-        <v>3385.635224383649</v>
+        <v>3389.833750949226</v>
       </c>
       <c r="P37" t="n">
-        <v>3618.242724817308</v>
+        <v>3622.441251382885</v>
       </c>
       <c r="Q37" t="n">
-        <v>3695.853020969823</v>
+        <v>3700.0515475354</v>
       </c>
       <c r="R37" t="n">
-        <v>3678.776694345949</v>
+        <v>3682.681324051935</v>
       </c>
       <c r="S37" t="n">
-        <v>3559.844940791373</v>
+        <v>3563.455673637769</v>
       </c>
       <c r="T37" t="n">
-        <v>3410.832455979497</v>
+        <v>3414.149291966302</v>
       </c>
       <c r="U37" t="n">
-        <v>3194.483719723738</v>
+        <v>3197.506658850953</v>
       </c>
       <c r="V37" t="n">
-        <v>3012.553362136449</v>
+        <v>2987.155873448381</v>
       </c>
       <c r="W37" t="n">
-        <v>2795.890322718086</v>
+        <v>2770.198937170428</v>
       </c>
       <c r="X37" t="n">
-        <v>2640.654902438667</v>
+        <v>2614.669620031418</v>
       </c>
       <c r="Y37" t="n">
-        <v>2492.616453913734</v>
+        <v>2466.337274646895</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1874.05070018906</v>
+        <v>1875.898051877914</v>
       </c>
       <c r="C38" t="n">
-        <v>1577.842313867246</v>
+        <v>1579.39576869651</v>
       </c>
       <c r="D38" t="n">
-        <v>1292.330745879093</v>
+        <v>1293.590303848767</v>
       </c>
       <c r="E38" t="n">
-        <v>979.2966238994468</v>
+        <v>980.2622850095297</v>
       </c>
       <c r="F38" t="n">
-        <v>641.0648497284371</v>
+        <v>641.7366139789297</v>
       </c>
       <c r="G38" t="n">
-        <v>298.7465301920315</v>
+        <v>299.1243975829334</v>
       </c>
       <c r="H38" t="n">
-        <v>73.91706041939646</v>
+        <v>74.001030950708</v>
       </c>
       <c r="I38" t="n">
-        <v>73.91706041939646</v>
+        <v>74.001030950708</v>
       </c>
       <c r="J38" t="n">
-        <v>262.7961913784218</v>
+        <v>430.2858109300864</v>
       </c>
       <c r="K38" t="n">
-        <v>596.6155650682682</v>
+        <v>764.1051846199327</v>
       </c>
       <c r="L38" t="n">
-        <v>1047.649778316677</v>
+        <v>1215.139397868341</v>
       </c>
       <c r="M38" t="n">
-        <v>1581.181682988601</v>
+        <v>1948.222464927618</v>
       </c>
       <c r="N38" t="n">
-        <v>2425.743499746571</v>
+        <v>2495.0012819864</v>
       </c>
       <c r="O38" t="n">
-        <v>2928.715970625908</v>
+        <v>2997.973752865737</v>
       </c>
       <c r="P38" t="n">
-        <v>3323.490336983085</v>
+        <v>3392.748119222915</v>
       </c>
       <c r="Q38" t="n">
-        <v>3571.776698738768</v>
+        <v>3641.034480978597</v>
       </c>
       <c r="R38" t="n">
-        <v>3695.853020969823</v>
+        <v>3700.0515475354</v>
       </c>
       <c r="S38" t="n">
-        <v>3658.316483115516</v>
+        <v>3662.221112821503</v>
       </c>
       <c r="T38" t="n">
-        <v>3525.092866118336</v>
+        <v>3528.703598964732</v>
       </c>
       <c r="U38" t="n">
-        <v>3344.31652001077</v>
+        <v>3347.633355997575</v>
       </c>
       <c r="V38" t="n">
-        <v>3086.007763285797</v>
+        <v>3089.030702413012</v>
       </c>
       <c r="W38" t="n">
-        <v>2805.993238634281</v>
+        <v>2808.722280901905</v>
       </c>
       <c r="X38" t="n">
-        <v>2505.281610991799</v>
+        <v>2507.716756399833</v>
       </c>
       <c r="Y38" t="n">
-        <v>2187.896409634584</v>
+        <v>2190.037658183028</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2072.34333291759</v>
+        <v>949.0327689996333</v>
       </c>
       <c r="C39" t="n">
-        <v>1897.890303636463</v>
+        <v>774.5797397185063</v>
       </c>
       <c r="D39" t="n">
-        <v>1748.955893975212</v>
+        <v>625.645330057255</v>
       </c>
       <c r="E39" t="n">
-        <v>1589.718438969757</v>
+        <v>466.4078750517995</v>
       </c>
       <c r="F39" t="n">
-        <v>1443.183880996642</v>
+        <v>319.8733170786845</v>
       </c>
       <c r="G39" t="n">
-        <v>1306.82078082926</v>
+        <v>183.5102169113026</v>
       </c>
       <c r="H39" t="n">
-        <v>1216.318886467127</v>
+        <v>93.00832254917006</v>
       </c>
       <c r="I39" t="n">
-        <v>1197.311594868665</v>
+        <v>74.001030950708</v>
       </c>
       <c r="J39" t="n">
-        <v>1290.988864359283</v>
+        <v>167.6783004413253</v>
       </c>
       <c r="K39" t="n">
-        <v>1529.25306333963</v>
+        <v>405.9424994216724</v>
       </c>
       <c r="L39" t="n">
-        <v>1895.951223652295</v>
+        <v>772.6406597343376</v>
       </c>
       <c r="M39" t="n">
-        <v>2343.227548874611</v>
+        <v>1219.916984956653</v>
       </c>
       <c r="N39" t="n">
-        <v>2816.750592429065</v>
+        <v>1693.440028511109</v>
       </c>
       <c r="O39" t="n">
-        <v>3227.71187184712</v>
+        <v>2104.401307929164</v>
       </c>
       <c r="P39" t="n">
-        <v>3538.211463323223</v>
+        <v>2414.900899405266</v>
       </c>
       <c r="Q39" t="n">
-        <v>3695.853020969823</v>
+        <v>2572.542457051866</v>
       </c>
       <c r="R39" t="n">
-        <v>3695.708667562338</v>
+        <v>2572.398103644381</v>
       </c>
       <c r="S39" t="n">
-        <v>3566.270781055818</v>
+        <v>2442.960217137861</v>
       </c>
       <c r="T39" t="n">
-        <v>3373.627780733674</v>
+        <v>2250.317216815717</v>
       </c>
       <c r="U39" t="n">
-        <v>3145.55993386809</v>
+        <v>2022.249369950132</v>
       </c>
       <c r="V39" t="n">
-        <v>2910.407825636347</v>
+        <v>1787.09726171839</v>
       </c>
       <c r="W39" t="n">
-        <v>2656.170468908145</v>
+        <v>1532.859904990188</v>
       </c>
       <c r="X39" t="n">
-        <v>2448.318968702612</v>
+        <v>1325.008404784655</v>
       </c>
       <c r="Y39" t="n">
-        <v>2240.558669937659</v>
+        <v>1117.248106019701</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>622.5685908079745</v>
+        <v>2385.275574531356</v>
       </c>
       <c r="C40" t="n">
-        <v>526.3865384986653</v>
+        <v>2288.799625362456</v>
       </c>
       <c r="D40" t="n">
-        <v>449.0240297049274</v>
+        <v>2211.143219709128</v>
       </c>
       <c r="E40" t="n">
-        <v>373.8650667411321</v>
+        <v>2135.690359885742</v>
       </c>
       <c r="F40" t="n">
-        <v>299.7292498618195</v>
+        <v>2061.260646146839</v>
       </c>
       <c r="G40" t="n">
-        <v>204.7805438551363</v>
+        <v>1937.891512324873</v>
       </c>
       <c r="H40" t="n">
-        <v>98.48860698245333</v>
+        <v>1864.134559301738</v>
       </c>
       <c r="I40" t="n">
-        <v>73.91706041939646</v>
+        <v>1839.269115879091</v>
       </c>
       <c r="J40" t="n">
-        <v>119.039692866332</v>
+        <v>1884.391748326026</v>
       </c>
       <c r="K40" t="n">
-        <v>323.0268758152083</v>
+        <v>2088.378931274903</v>
       </c>
       <c r="L40" t="n">
-        <v>639.5866742637045</v>
+        <v>2404.938729723399</v>
       </c>
       <c r="M40" t="n">
-        <v>983.7437198632534</v>
+        <v>2749.095775322948</v>
       </c>
       <c r="N40" t="n">
-        <v>1325.152096569118</v>
+        <v>3090.504152028812</v>
       </c>
       <c r="O40" t="n">
-        <v>1624.481695489531</v>
+        <v>3389.833750949226</v>
       </c>
       <c r="P40" t="n">
-        <v>1857.089195923191</v>
+        <v>3622.441251382885</v>
       </c>
       <c r="Q40" t="n">
-        <v>1934.699492075705</v>
+        <v>3700.0515475354</v>
       </c>
       <c r="R40" t="n">
-        <v>1917.623165451831</v>
+        <v>3682.681324051935</v>
       </c>
       <c r="S40" t="n">
-        <v>1798.691411897255</v>
+        <v>3563.455673637769</v>
       </c>
       <c r="T40" t="n">
-        <v>1649.678927085379</v>
+        <v>3414.149291966302</v>
       </c>
       <c r="U40" t="n">
-        <v>1433.33019082962</v>
+        <v>3197.506658850953</v>
       </c>
       <c r="V40" t="n">
-        <v>1251.399833242331</v>
+        <v>3015.282404404074</v>
       </c>
       <c r="W40" t="n">
-        <v>1034.736793823968</v>
+        <v>2798.325468126121</v>
       </c>
       <c r="X40" t="n">
-        <v>879.5013735445486</v>
+        <v>2642.796150987111</v>
       </c>
       <c r="Y40" t="n">
-        <v>731.4629250196164</v>
+        <v>2494.463805602588</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1457.522709123157</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C41" t="n">
-        <v>1136.009825130819</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="D41" t="n">
-        <v>1136.009825130819</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E41" t="n">
-        <v>797.6712054806478</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F41" t="n">
-        <v>434.1349336391136</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,10 +7411,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7442,19 +7444,19 @@
         <v>3104.236671416634</v>
       </c>
       <c r="U41" t="n">
-        <v>2898.155827638544</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="V41" t="n">
-        <v>2614.542573243047</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="W41" t="n">
-        <v>2465.37874057995</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X41" t="n">
-        <v>2139.362615266944</v>
+        <v>2700.31264836878</v>
       </c>
       <c r="Y41" t="n">
-        <v>1796.672916239206</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7506,34 +7508,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1785.734441306719</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C43" t="n">
-        <v>1664.247891326886</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D43" t="n">
-        <v>1561.580884862623</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E43" t="n">
-        <v>1461.117424228303</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F43" t="n">
-        <v>1361.677109678466</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G43" t="n">
-        <v>1241.423906001259</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H43" t="n">
-        <v>1142.65635216719</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I43" t="n">
-        <v>1092.780307933609</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>1184.408325632951</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K43" t="n">
-        <v>1434.900893834234</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L43" t="n">
-        <v>1797.966077535136</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M43" t="n">
-        <v>2188.628508387092</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N43" t="n">
-        <v>2576.542270345363</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O43" t="n">
-        <v>2922.377254518183</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P43" t="n">
-        <v>3201.490140204249</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.605821609171</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R43" t="n">
-        <v>3283.224997314772</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S43" t="n">
-        <v>3138.988746089672</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T43" t="n">
-        <v>2964.671763607271</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U43" t="n">
-        <v>2723.018529680988</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V43" t="n">
-        <v>2515.783674423174</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W43" t="n">
-        <v>2273.816137334287</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X43" t="n">
-        <v>2093.276219384343</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y43" t="n">
-        <v>1919.933273188886</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1923.85022672014</v>
+        <v>1680.134122574823</v>
       </c>
       <c r="C44" t="n">
-        <v>1580.192207450253</v>
+        <v>1358.621238582484</v>
       </c>
       <c r="D44" t="n">
-        <v>1247.231006514027</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="E44" t="n">
-        <v>1114.240578756454</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F44" t="n">
-        <v>728.5591716373708</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G44" t="n">
-        <v>338.7912191528918</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7667,31 +7669,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.60582160917</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="W44" t="n">
-        <v>2998.14166400958</v>
+        <v>2592.836805316503</v>
       </c>
       <c r="X44" t="n">
-        <v>2649.980403419025</v>
+        <v>2361.97402871861</v>
       </c>
       <c r="Y44" t="n">
-        <v>2285.145569113738</v>
+        <v>2019.284329690871</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.6700550063248</v>
+        <v>759.4662498052951</v>
       </c>
       <c r="C46" t="n">
-        <v>646.0383697489424</v>
+        <v>637.9796998254615</v>
       </c>
       <c r="D46" t="n">
-        <v>646.0383697489424</v>
+        <v>535.3126933611991</v>
       </c>
       <c r="E46" t="n">
-        <v>523.4297738370738</v>
+        <v>434.8492327268793</v>
       </c>
       <c r="F46" t="n">
-        <v>401.8443240096879</v>
+        <v>335.4089181770423</v>
       </c>
       <c r="G46" t="n">
-        <v>259.4459850549313</v>
+        <v>215.1557144998346</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5332959433136</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>136.4356870459999</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K46" t="n">
-        <v>365.2238081617573</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L46" t="n">
-        <v>706.5845447771344</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M46" t="n">
-        <v>1075.542528543564</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N46" t="n">
-        <v>1441.75184341631</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O46" t="n">
-        <v>1765.882380503605</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P46" t="n">
-        <v>2023.290819104145</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q46" t="n">
-        <v>2125.70205342354</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R46" t="n">
-        <v>2125.70205342354</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S46" t="n">
-        <v>1959.320666920891</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T46" t="n">
-        <v>1959.320666920891</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.522297717059</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V46" t="n">
-        <v>1466.142307181697</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.029634815261</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X46" t="n">
-        <v>1141.502103639046</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y46" t="n">
-        <v>946.01402216604</v>
+        <v>893.6650816874615</v>
       </c>
     </row>
   </sheetData>
@@ -8705,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>36.36561760922018</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>36.36561760922044</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9170,13 +9172,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>237.9324483035131</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>366.50732866004</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9404,13 +9406,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>366.5073286600382</v>
+        <v>25.13383816966791</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>381.8952253059199</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9638,22 +9640,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>85.23035530410539</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>28.24032373460307</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>382.9448569473143</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9875,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>12.68816924374607</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>306.6874953089243</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>287.0017854473918</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>21.13839585591518</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>306.687495308926</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10364,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>231.1066821161381</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10595,10 +10597,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>46.51803329520476</v>
       </c>
       <c r="O35" t="n">
-        <v>366.5073286600409</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,10 +10831,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>201.5668306942957</v>
       </c>
       <c r="N38" t="n">
-        <v>300.790908787058</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>31.98919005837911</v>
+        <v>87.39679890818773</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.0294266769167</v>
       </c>
       <c r="C14" t="n">
-        <v>122.6604474123007</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23555,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>280.3421481740471</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -23747,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>43.78876276664238</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>43.78876276664417</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24029,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25682,13 +25684,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>126.8912165828102</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>154.593637762355</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25871,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>225.2183938984452</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>16.52547707910676</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.13630909435663</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>178.8665174458009</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>225.9437192650827</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>302.7008057763156</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>94.20181522796179</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>123.5640203243931</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>63.88069997622813</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>194.49749658235</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>140.7359468307648</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>583157.3608575793</v>
+        <v>586443.0660488389</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>601481.1758819047</v>
+        <v>586443.0660488389</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>634595.8350457768</v>
+        <v>638500.2362194724</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>634595.8350457766</v>
+        <v>638500.2362194723</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>638632.5669913219</v>
+        <v>638500.2362194724</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>637210.0241829454</v>
+        <v>637342.3549547949</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>637210.0241829454</v>
+        <v>637342.3549547949</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>554438.7679047837</v>
+        <v>583157.3608575793</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>819276.3387170383</v>
       </c>
       <c r="D2" t="n">
-        <v>819276.3387170385</v>
+        <v>819276.3387170387</v>
       </c>
       <c r="E2" t="n">
-        <v>764531.0098898428</v>
+        <v>767368.1084586189</v>
       </c>
       <c r="F2" t="n">
-        <v>788962.7632556098</v>
+        <v>767368.1084586185</v>
       </c>
       <c r="G2" t="n">
-        <v>817556.1843480584</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="H2" t="n">
-        <v>817556.1843480582</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="I2" t="n">
+        <v>821041.7698642829</v>
+      </c>
+      <c r="J2" t="n">
+        <v>821041.7698642819</v>
+      </c>
+      <c r="K2" t="n">
         <v>821041.769864283</v>
       </c>
-      <c r="J2" t="n">
-        <v>821041.7698642822</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.7698642833</v>
-      </c>
       <c r="L2" t="n">
-        <v>821041.7698642818</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642828</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642839</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="O2" t="n">
         <v>764531.0098898427</v>
       </c>
       <c r="P2" t="n">
-        <v>726239.5526194491</v>
+        <v>764531.0098898417</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26374,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1161348.163632737</v>
+        <v>1164090.355888038</v>
       </c>
       <c r="F3" t="n">
-        <v>17538.94713981867</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25369.8009091911</v>
+        <v>43429.20265023693</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3000.502881794644</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40734.52563562323</v>
+        <v>40776.38914400859</v>
       </c>
       <c r="K3" t="n">
-        <v>17538.94713981864</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>17771.71345261428</v>
       </c>
       <c r="M3" t="n">
-        <v>204708.3660275376</v>
+        <v>207025.9049746768</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>430898.5094426759</v>
       </c>
       <c r="E4" t="n">
-        <v>57605.61344858629</v>
+        <v>58767.83676800637</v>
       </c>
       <c r="F4" t="n">
-        <v>71440.00615383536</v>
+        <v>58767.83676800638</v>
       </c>
       <c r="G4" t="n">
-        <v>83153.36047341306</v>
+        <v>84632.01250899324</v>
       </c>
       <c r="H4" t="n">
-        <v>83153.36047341298</v>
+        <v>84632.0125089933</v>
       </c>
       <c r="I4" t="n">
-        <v>84581.23781732102</v>
+        <v>84632.0125089933</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646597</v>
+        <v>80755.36360646595</v>
       </c>
       <c r="K4" t="n">
-        <v>80755.36360646597</v>
+        <v>80755.36360646601</v>
       </c>
       <c r="L4" t="n">
-        <v>80755.36360646601</v>
+        <v>80755.36360646604</v>
       </c>
       <c r="M4" t="n">
-        <v>85137.29404028386</v>
+        <v>85085.0535532581</v>
       </c>
       <c r="N4" t="n">
-        <v>85137.29404028383</v>
+        <v>85085.0535532581</v>
       </c>
       <c r="O4" t="n">
-        <v>57605.61344858623</v>
+        <v>57605.61344858627</v>
       </c>
       <c r="P4" t="n">
-        <v>35695.9854607106</v>
+        <v>57605.61344858627</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178173</v>
+        <v>78813.89109094863</v>
       </c>
       <c r="F5" t="n">
-        <v>80098.5955056535</v>
+        <v>78813.89109094863</v>
       </c>
       <c r="G5" t="n">
-        <v>85726.35293593543</v>
+        <v>86373.02884783709</v>
       </c>
       <c r="H5" t="n">
-        <v>85726.3529359354</v>
+        <v>86373.02884783709</v>
       </c>
       <c r="I5" t="n">
-        <v>86412.38591269584</v>
+        <v>86373.02884783709</v>
       </c>
       <c r="J5" t="n">
+        <v>89377.9416748061</v>
+      </c>
+      <c r="K5" t="n">
         <v>89377.94167480612</v>
       </c>
-      <c r="K5" t="n">
-        <v>89377.9416748061</v>
-      </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>85989.30132858035</v>
+        <v>86028.65839343911</v>
       </c>
       <c r="N5" t="n">
-        <v>85989.30132858035</v>
+        <v>86028.65839343911</v>
       </c>
       <c r="O5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="P5" t="n">
-        <v>76412.39113790996</v>
+        <v>78255.49332178175</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26527,43 @@
         <v>354750.2292743624</v>
       </c>
       <c r="D6" t="n">
-        <v>354750.2292743627</v>
+        <v>354750.2292743629</v>
       </c>
       <c r="E6" t="n">
-        <v>-532678.2605132625</v>
+        <v>-534303.9752883746</v>
       </c>
       <c r="F6" t="n">
-        <v>619885.2144563022</v>
+        <v>629786.3805996636</v>
       </c>
       <c r="G6" t="n">
-        <v>623306.6700295189</v>
+        <v>606607.5258572163</v>
       </c>
       <c r="H6" t="n">
-        <v>648676.4709387098</v>
+        <v>650036.7285074531</v>
       </c>
       <c r="I6" t="n">
-        <v>647047.6432524715</v>
+        <v>650036.7285074525</v>
       </c>
       <c r="J6" t="n">
-        <v>610173.9389473869</v>
+        <v>610132.0754390012</v>
       </c>
       <c r="K6" t="n">
-        <v>633369.5174431925</v>
+        <v>650908.4645830109</v>
       </c>
       <c r="L6" t="n">
-        <v>650908.4645830097</v>
+        <v>633136.7511303967</v>
       </c>
       <c r="M6" t="n">
-        <v>445206.8084678809</v>
+        <v>442902.1529429092</v>
       </c>
       <c r="N6" t="n">
-        <v>649915.1744954197</v>
+        <v>649928.0579175859</v>
       </c>
       <c r="O6" t="n">
-        <v>628669.9031194748</v>
+        <v>628669.9031194746</v>
       </c>
       <c r="P6" t="n">
-        <v>614131.1760208285</v>
+        <v>628669.9031194736</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26697,37 @@
         <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G2" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="H2" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="I2" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="N2" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P2" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>840.5856292372741</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>840.5856292372741</v>
       </c>
       <c r="G4" t="n">
-        <v>923.9632552424555</v>
+        <v>934.1970607188313</v>
       </c>
       <c r="H4" t="n">
-        <v>923.9632552424551</v>
+        <v>934.1970607188313</v>
       </c>
       <c r="I4" t="n">
-        <v>935.2466923602257</v>
+        <v>934.1970607188313</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>923.9632552424557</v>
+        <v>925.01288688385</v>
       </c>
       <c r="N4" t="n">
-        <v>923.9632552424557</v>
+        <v>925.01288688385</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
-        <v>21.92368392477334</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>22.21464181576785</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26931,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.05145269381926</v>
+        <v>24.76049480282471</v>
       </c>
       <c r="K2" t="n">
-        <v>21.9236839247733</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>22.21464181576785</v>
       </c>
       <c r="M2" t="n">
-        <v>25.05145269381924</v>
+        <v>24.76049480282473</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>840.5856292372741</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>92.56179984016308</v>
+        <v>93.61143148155732</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>11.28343711777048</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>79.08976884838876</v>
+        <v>80.13940048978316</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>741.0282494361337</v>
+        <v>751.2620549125096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>21.92368392477334</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>22.21464181576785</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.05145269381926</v>
+        <v>24.76049480282471</v>
       </c>
       <c r="P2" t="n">
-        <v>21.9236839247733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>840.5856292372741</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>92.56179984016308</v>
+        <v>93.61143148155732</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C14" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D14" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E14" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F14" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G14" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H14" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T14" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U14" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V14" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W14" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X14" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y14" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C16" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D16" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E16" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F16" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G16" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H16" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I16" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O16" t="n">
-        <v>17.89991674593114</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R16" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S16" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T16" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U16" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V16" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W16" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X16" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y16" t="n">
-        <v>68.89882054336591</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="C17" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="D17" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="E17" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="F17" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="G17" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="H17" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="T17" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="U17" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="V17" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="W17" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="X17" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="C19" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="D19" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="E19" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="F19" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="G19" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="H19" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="I19" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28755,10 +28757,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>13.150068510126</v>
       </c>
       <c r="O19" t="n">
-        <v>17.89991674593136</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28767,28 +28769,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="S19" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="T19" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="U19" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="V19" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="W19" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="X19" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="C20" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="D20" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="E20" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="F20" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="G20" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="H20" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="T20" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="U20" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="V20" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="W20" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="X20" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="C22" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="D22" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="E22" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="F22" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="G22" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="H22" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="I22" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28998,34 +29000,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>17.89991674593048</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>13.15006851012686</v>
       </c>
       <c r="R22" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="S22" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="T22" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="U22" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="V22" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="W22" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="X22" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="C23" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="D23" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="E23" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="F23" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="G23" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="H23" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="T23" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="U23" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="V23" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="W23" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="X23" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29195,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="C25" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="D25" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="E25" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="F25" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="G25" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="H25" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="I25" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>13.15006851012731</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29235,34 +29237,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>17.89991674593094</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="S25" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="T25" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="U25" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="V25" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="W25" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="X25" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.89882054336591</v>
+        <v>69.18977843436042</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="32">
@@ -29931,7 +29933,7 @@
         <v>46.97513661859258</v>
       </c>
       <c r="K34" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L34" t="n">
         <v>46.97513661859258</v>
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="C35" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="D35" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="E35" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="F35" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="G35" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="H35" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="T35" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="U35" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="V35" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="W35" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="X35" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="Y35" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="C37" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="D37" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="E37" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="F37" t="n">
-        <v>39.52599741036394</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="G37" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="H37" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="I37" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="S37" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="T37" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="U37" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="V37" t="n">
-        <v>72.02658931241182</v>
+        <v>43.89036577528174</v>
       </c>
       <c r="W37" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="X37" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="C38" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="D38" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="E38" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="F38" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="G38" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="H38" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="T38" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="U38" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="V38" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="W38" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="X38" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="Y38" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="C40" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="D40" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="E40" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="F40" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="G40" t="n">
-        <v>72.02658931241182</v>
+        <v>43.89036577528191</v>
       </c>
       <c r="H40" t="n">
-        <v>39.52599741036468</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="I40" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30428,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="S40" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="T40" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="U40" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="V40" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="W40" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="X40" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.02658931241182</v>
+        <v>71.73563142141731</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C44" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D44" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E44" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F44" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G44" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H44" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I44" t="n">
-        <v>25.05145269381924</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T44" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U44" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V44" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W44" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X44" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y44" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y46" t="n">
-        <v>25.05145269381924</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
   </sheetData>
@@ -31838,7 +31840,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026448</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
@@ -32075,10 +32077,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026448</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138795</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32570,7 +32572,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32801,7 +32803,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002926</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33275,13 +33277,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P30" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33971,7 +33973,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33983,7 +33985,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837935</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34226,7 +34228,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987486</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,37 +34438,37 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34475,7 +34477,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34524,16 +34526,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
         <v>300.7247737883114</v>
@@ -34542,19 +34544,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780294</v>
@@ -35425,7 +35427,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>435.1276038285918</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037194</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597813</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>227.1526185779329</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554004</v>
@@ -35662,7 +35664,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037194</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597813</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340053</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
-        <v>320.2530469685709</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>776.8535641337398</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>874.560329548259</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36051,16 +36053,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>358.0070146776661</v>
       </c>
       <c r="O19" t="n">
-        <v>320.2530469685711</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,13 +36126,13 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>822.0974430523702</v>
+        <v>480.7239525619999</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>934.1970607188313</v>
       </c>
       <c r="O20" t="n">
         <v>508.053000888219</v>
@@ -36218,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36294,10 +36296,10 @@
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>252.8569878910409</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>91.54430704802049</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,22 +36360,22 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>422.4216418595058</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>567.1614395648296</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>935.2466923602257</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037194</v>
@@ -36449,7 +36451,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
@@ -36516,7 +36518,7 @@
         <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>219.1977280544468</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36531,7 +36533,7 @@
         <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>252.8569878910413</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
         <v>78.39423853789363</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>468.278283636078</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>705.4494815282961</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>742.5918998397237</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>560.0595116861417</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222472</v>
@@ -36923,13 +36925,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>643.8787818643264</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
@@ -37084,7 +37086,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>629.8686683355097</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037194</v>
@@ -37227,13 +37229,13 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629116</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37306,7 +37308,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
@@ -37315,10 +37317,10 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>598.819868708116</v>
       </c>
       <c r="O35" t="n">
-        <v>874.5603295482599</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193716</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554004</v>
@@ -37549,10 +37551,10 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>740.4879465245223</v>
       </c>
       <c r="N38" t="n">
-        <v>853.0927441999693</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
         <v>508.053000888219</v>
@@ -37564,7 +37566,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37631,7 +37633,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004602</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37801,7 +37803,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,7 +37876,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127271</v>
@@ -37935,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>70.62986930688541</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>231.0991122381387</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>344.8088248640173</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>372.684832087303</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>369.9083988613592</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>327.4045829164589</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>260.0085238389296</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.4456912317128</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
